--- a/Case3.xlsx
+++ b/Case3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="11775" yWindow="2535" windowWidth="21780" windowHeight="13740"/>
+    <workbookView xWindow="11775" yWindow="2535" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>TestCase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>校验授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hahaha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +164,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +470,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -524,6 +528,9 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
@@ -536,6 +543,9 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="F4">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2"/>
@@ -577,9 +587,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
